--- a/results/mod2.lrecon.eff.COMB.xlsx
+++ b/results/mod2.lrecon.eff.COMB.xlsx
@@ -404,25 +404,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0438203513559139</v>
+        <v>-0.0438191747134298</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0329277414696025</v>
+        <v>0.0329276297693585</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.108357538728581</v>
+        <v>-0.108356143157641</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0207168360167531</v>
+        <v>0.0207177937307818</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.3308034320048</v>
+        <v>-1.33077221228376</v>
       </c>
       <c r="H2" t="n">
-        <v>0.183253698391241</v>
+        <v>0.18326397387164</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0558035839448058</v>
+        <v>-0.0558047720686232</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0322773974029907</v>
+        <v>0.0322773322557534</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.119066120369354</v>
+        <v>-0.119067180806933</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0074589524797427</v>
+        <v>0.00745763666968639</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.72887495382869</v>
+        <v>-1.72891525317047</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0838314775763777</v>
+        <v>0.0838242637129993</v>
       </c>
     </row>
   </sheetData>
